--- a/data/Bus_Dev_Responses.xlsx
+++ b/data/Bus_Dev_Responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3585458a03cad8dc/Documents/BMHC/Dashboard/Impact Reports/Business Development/Bus_Dev_Feb_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E5146DE7A19B6274172041D36ECFD3E5738020D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE23035D-E097-4399-A8CE-65E18BB09D6A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E5146DE7A19B6274172041D36ECFD3E5738020D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187984E7-BBF4-4A75-89FF-FFED60612271}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Date of Activity</t>
   </si>
   <si>
-    <t>Activity Status:</t>
-  </si>
-  <si>
     <t>Activity duration (minutes):</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Person submitting this form:</t>
+  </si>
+  <si>
+    <t>Activity Status</t>
   </si>
 </sst>
 </file>
@@ -410,12 +410,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:S4">
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date of Activity"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Activity Status:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Activity Status"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Person submitting this form:"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Activity duration (minutes):"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Purpose of the activity (please only list one):"/>
@@ -642,15 +646,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="25" width="18.90625" customWidth="1"/>
+    <col min="1" max="25" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,58 +662,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45702.578991273149</v>
       </c>
@@ -717,22 +721,22 @@
         <v>45684</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="6">
         <v>120</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="6">
         <v>3</v>
@@ -768,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45716.408005324076</v>
       </c>
@@ -776,22 +780,22 @@
         <v>45713</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10">
         <v>120</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="I3" s="10">
         <v>3</v>
@@ -824,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>45716.40865542824</v>
       </c>
@@ -832,22 +836,22 @@
         <v>45710</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="14">
         <v>120</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
